--- a/online_translators/raw_data/questionnaire_big_size.xlsx
+++ b/online_translators/raw_data/questionnaire_big_size.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="adj_csv_en" sheetId="1" r:id="rId1"/>
-    <sheet name="adj_csv_ru" sheetId="2" r:id="rId2"/>
+    <sheet name="adj_csv_it" sheetId="3" r:id="rId2"/>
+    <sheet name="adj_csv_ru" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="98">
   <si>
     <r>
       <t xml:space="preserve">+, </t>
@@ -316,6 +317,54 @@
   </si>
   <si>
     <t>толстый</t>
+  </si>
+  <si>
+    <t>spesso</t>
+  </si>
+  <si>
+    <t>grosso</t>
+  </si>
+  <si>
+    <t>grasso</t>
+  </si>
+  <si>
+    <t>largo</t>
+  </si>
+  <si>
+    <t>ampio</t>
+  </si>
+  <si>
+    <t>spazioso</t>
+  </si>
+  <si>
+    <t>arioso</t>
+  </si>
+  <si>
+    <t>+, G</t>
+  </si>
+  <si>
+    <t>стебель</t>
+  </si>
+  <si>
+    <t>нитка</t>
+  </si>
+  <si>
+    <t>карандаш</t>
+  </si>
+  <si>
+    <t>суп</t>
+  </si>
+  <si>
+    <t>лента</t>
+  </si>
+  <si>
+    <t>отверстие</t>
+  </si>
+  <si>
+    <t>штаны</t>
+  </si>
+  <si>
+    <t>ботинок</t>
   </si>
 </sst>
 </file>
@@ -857,7 +906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
@@ -1405,6 +1454,362 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
